--- a/data/trans_orig/P14B_x_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B_x_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C713B629-FA51-49C6-B3C8-1AE7E28DCF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA7EB600-73AB-488E-A3AE-FC1FB1655408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4DA41EA4-12C0-457B-A083-87715FDF942E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{685C3EAD-A606-4FFF-835D-29B6B4268CCF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="274">
   <si>
     <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -239,70 +239,73 @@
     <t>2,97%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
   </si>
   <si>
     <t>7,33%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
   </si>
   <si>
     <t>5,12%</t>
   </si>
   <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
   </si>
   <si>
     <t>97,03%</t>
   </si>
   <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
   </si>
   <si>
     <t>92,67%</t>
   </si>
   <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
   </si>
   <si>
     <t>94,88%</t>
   </si>
   <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>2,83%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
   </si>
   <si>
     <t>8,15%</t>
   </si>
   <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
   </si>
   <si>
     <t>4,87%</t>
@@ -311,28 +314,31 @@
     <t>3,6%</t>
   </si>
   <si>
-    <t>6,27%</t>
+    <t>6,23%</t>
   </si>
   <si>
     <t>98,42%</t>
   </si>
   <si>
-    <t>97,17%</t>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
   </si>
   <si>
     <t>91,85%</t>
   </si>
   <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
   </si>
   <si>
     <t>95,13%</t>
   </si>
   <si>
-    <t>93,73%</t>
+    <t>93,77%</t>
   </si>
   <si>
     <t>96,4%</t>
@@ -341,16 +347,16 @@
     <t>1,59%</t>
   </si>
   <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
   </si>
   <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>4,67%</t>
+    <t>4,74%</t>
   </si>
   <si>
     <t>7,83%</t>
@@ -359,496 +365,502 @@
     <t>3,9%</t>
   </si>
   <si>
-    <t>3,04%</t>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
   </si>
   <si>
     <t>4,88%</t>
   </si>
   <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
   </si>
   <si>
     <t>95,12%</t>
   </si>
   <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
   </si>
   <si>
     <t>3,91%</t>
   </si>
   <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
   </si>
   <si>
     <t>96,09%</t>
   </si>
   <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
   </si>
   <si>
     <t>92,27%</t>
   </si>
   <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
   </si>
   <si>
     <t>94,06%</t>
   </si>
   <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
   </si>
 </sst>
 </file>
@@ -1260,7 +1272,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DE7C60-B405-4E69-9CE4-6C76B17B86F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFCCC54-9C82-439F-A960-713B74E564F1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2237,7 +2249,7 @@
         <v>6511</v>
       </c>
       <c r="N20" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
@@ -2288,7 +2300,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -2323,7 +2335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA55D7A-E87B-451B-9456-4316946E5EE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6AB928-FCD3-491A-98B5-1FA12C749A9E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3386,7 +3398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCF6A7E-AA97-4BD4-AEF4-A4B35EA44D65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B72CEDF-CFFA-4988-B433-DD28F710B674}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3668,10 +3680,10 @@
         <v>83</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H7" s="7">
         <v>43</v>
@@ -3680,13 +3692,13 @@
         <v>45608</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M7" s="7">
         <v>52</v>
@@ -3695,13 +3707,13 @@
         <v>54447</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3716,13 +3728,13 @@
         <v>549415</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="H8" s="7">
         <v>508</v>
@@ -3731,13 +3743,13 @@
         <v>513871</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M8" s="7">
         <v>1038</v>
@@ -3746,13 +3758,13 @@
         <v>1063286</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,13 +3832,13 @@
         <v>16302</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H10" s="7">
         <v>58</v>
@@ -3835,13 +3847,13 @@
         <v>64166</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M10" s="7">
         <v>74</v>
@@ -3850,13 +3862,13 @@
         <v>80468</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3871,13 +3883,13 @@
         <v>1006129</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H11" s="7">
         <v>919</v>
@@ -3886,13 +3898,13 @@
         <v>978747</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M11" s="7">
         <v>1854</v>
@@ -3901,13 +3913,13 @@
         <v>1984876</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,13 +3987,13 @@
         <v>18297</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -3990,13 +4002,13 @@
         <v>53133</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -4005,13 +4017,13 @@
         <v>71430</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,13 +4038,13 @@
         <v>741255</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H14" s="7">
         <v>688</v>
@@ -4041,13 +4053,13 @@
         <v>731878</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M14" s="7">
         <v>1367</v>
@@ -4056,13 +4068,13 @@
         <v>1473133</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,13 +4142,13 @@
         <v>19992</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H16" s="7">
         <v>58</v>
@@ -4145,13 +4157,13 @@
         <v>66699</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M16" s="7">
         <v>79</v>
@@ -4160,13 +4172,13 @@
         <v>86691</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,13 +4193,13 @@
         <v>917575</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H17" s="7">
         <v>901</v>
@@ -4196,13 +4208,13 @@
         <v>977080</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M17" s="7">
         <v>1812</v>
@@ -4211,13 +4223,13 @@
         <v>1894655</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,13 +4297,13 @@
         <v>66891</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>152</v>
+        <v>52</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H19" s="7">
         <v>215</v>
@@ -4300,13 +4312,13 @@
         <v>237917</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M19" s="7">
         <v>281</v>
@@ -4315,13 +4327,13 @@
         <v>304808</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,13 +4348,13 @@
         <v>3327459</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="H20" s="7">
         <v>3123</v>
@@ -4351,13 +4363,13 @@
         <v>3306625</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M20" s="7">
         <v>6288</v>
@@ -4366,13 +4378,13 @@
         <v>6634084</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,7 +4461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6694C65A-0EF3-41EE-A28F-A54CF38D559A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857238B9-798B-464B-90F6-D47083F90060}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4466,7 +4478,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4573,13 +4585,13 @@
         <v>3640</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>171</v>
+        <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -4588,13 +4600,13 @@
         <v>7869</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -4603,13 +4615,13 @@
         <v>11509</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,13 +4636,13 @@
         <v>98342</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>181</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
         <v>227</v>
@@ -4883,13 +4895,13 @@
         <v>26294</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>206</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H10" s="7">
         <v>116</v>
@@ -4898,13 +4910,13 @@
         <v>76186</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M10" s="7">
         <v>144</v>
@@ -4913,13 +4925,13 @@
         <v>102480</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>107</v>
+        <v>212</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,13 +4946,13 @@
         <v>1012954</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H11" s="7">
         <v>1401</v>
@@ -4949,13 +4961,13 @@
         <v>983893</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="M11" s="7">
         <v>2337</v>
@@ -4964,13 +4976,13 @@
         <v>1996847</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>115</v>
+        <v>221</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,13 +5050,13 @@
         <v>25420</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H13" s="7">
         <v>107</v>
@@ -5053,13 +5065,13 @@
         <v>74858</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M13" s="7">
         <v>130</v>
@@ -5068,13 +5080,13 @@
         <v>100278</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>227</v>
+        <v>109</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>228</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5089,13 +5101,13 @@
         <v>703352</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H14" s="7">
         <v>940</v>
@@ -5104,13 +5116,13 @@
         <v>799513</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M14" s="7">
         <v>1593</v>
@@ -5119,13 +5131,13 @@
         <v>1502864</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>236</v>
+        <v>186</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>237</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,13 +5220,13 @@
         <v>96297</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>193</v>
+        <v>241</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M16" s="7">
         <v>186</v>
@@ -5223,13 +5235,13 @@
         <v>139069</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5244,13 +5256,13 @@
         <v>922631</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H17" s="7">
         <v>1423</v>
@@ -5259,13 +5271,13 @@
         <v>1054135</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M17" s="7">
         <v>2382</v>
@@ -5274,13 +5286,13 @@
         <v>1976766</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5348,13 +5360,13 @@
         <v>132239</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>119</v>
+        <v>256</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H19" s="7">
         <v>452</v>
@@ -5363,28 +5375,28 @@
         <v>296432</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="M19" s="7">
         <v>589</v>
       </c>
       <c r="N19" s="7">
-        <v>428672</v>
+        <v>428671</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5399,13 +5411,13 @@
         <v>3252989</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>126</v>
+        <v>265</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H20" s="7">
         <v>4915</v>
@@ -5414,13 +5426,13 @@
         <v>3539149</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="M20" s="7">
         <v>8154</v>
@@ -5429,13 +5441,13 @@
         <v>6792137</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5477,7 +5489,7 @@
         <v>8743</v>
       </c>
       <c r="N21" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P14B_x_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B_x_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA7EB600-73AB-488E-A3AE-FC1FB1655408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82D248FD-493D-4343-B1D7-28A5BC30455C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{685C3EAD-A606-4FFF-835D-29B6B4268CCF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1EA939D5-A992-44AD-9A5B-375A987F0BF4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="268">
   <si>
     <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -107,7 +107,7 @@
     <t>99,18%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -128,7 +128,7 @@
     <t>99,83%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,21%</t>
@@ -143,7 +143,7 @@
     <t>99,89%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,3%</t>
@@ -233,7 +233,7 @@
     <t>99,73%</t>
   </si>
   <si>
-    <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad) en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad) en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>2,97%</t>
@@ -242,22 +242,22 @@
     <t>0,77%</t>
   </si>
   <si>
-    <t>8,94%</t>
+    <t>8,01%</t>
   </si>
   <si>
     <t>7,33%</t>
   </si>
   <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
   </si>
   <si>
     <t>5,12%</t>
   </si>
   <si>
-    <t>2,72%</t>
+    <t>2,84%</t>
   </si>
   <si>
     <t>8,97%</t>
@@ -266,7 +266,7 @@
     <t>97,03%</t>
   </si>
   <si>
-    <t>91,06%</t>
+    <t>91,99%</t>
   </si>
   <si>
     <t>99,23%</t>
@@ -275,10 +275,10 @@
     <t>92,67%</t>
   </si>
   <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
   </si>
   <si>
     <t>94,88%</t>
@@ -287,472 +287,454 @@
     <t>91,03%</t>
   </si>
   <si>
-    <t>97,28%</t>
+    <t>97,16%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
   </si>
   <si>
     <t>8,15%</t>
   </si>
   <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
   </si>
   <si>
     <t>4,87%</t>
   </si>
   <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
     <t>3,6%</t>
   </si>
   <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
   </si>
   <si>
     <t>96,4%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
   </si>
   <si>
     <t>95,18%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
   </si>
   <si>
     <t>4,43%</t>
@@ -1272,7 +1254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFCCC54-9C82-439F-A960-713B74E564F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C62605-0014-4689-ABEF-29E109C10CA3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2219,7 +2201,7 @@
         <v>3214</v>
       </c>
       <c r="D20" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -2270,7 +2252,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -2335,7 +2317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6AB928-FCD3-491A-98B5-1FA12C749A9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4360E73-C4F1-40D4-8AC8-902C7765992C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3398,7 +3380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B72CEDF-CFFA-4988-B433-DD28F710B674}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73B2F3C-C2CA-43D1-9239-B863F34CA802}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4145,10 +4127,10 @@
         <v>137</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H16" s="7">
         <v>58</v>
@@ -4157,13 +4139,13 @@
         <v>66699</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M16" s="7">
         <v>79</v>
@@ -4172,13 +4154,13 @@
         <v>86691</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4175,13 @@
         <v>917575</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="H17" s="7">
         <v>901</v>
@@ -4208,13 +4190,13 @@
         <v>977080</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M17" s="7">
         <v>1812</v>
@@ -4223,13 +4205,13 @@
         <v>1894655</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,13 +4279,13 @@
         <v>66891</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H19" s="7">
         <v>215</v>
@@ -4312,13 +4294,13 @@
         <v>237917</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M19" s="7">
         <v>281</v>
@@ -4327,13 +4309,13 @@
         <v>304808</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,13 +4330,13 @@
         <v>3327459</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H20" s="7">
         <v>3123</v>
@@ -4363,13 +4345,13 @@
         <v>3306625</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M20" s="7">
         <v>6288</v>
@@ -4378,13 +4360,13 @@
         <v>6634084</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,7 +4443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857238B9-798B-464B-90F6-D47083F90060}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED3A0F4-3B7B-4C46-9267-00AAF8FBEF0E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4478,7 +4460,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4585,13 +4567,13 @@
         <v>3640</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -4600,13 +4582,13 @@
         <v>7869</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -4615,13 +4597,13 @@
         <v>11509</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>179</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4636,10 +4618,10 @@
         <v>98342</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -4651,13 +4633,13 @@
         <v>122864</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M5" s="7">
         <v>341</v>
@@ -4666,13 +4648,13 @@
         <v>221206</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>186</v>
+        <v>114</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4740,13 +4722,13 @@
         <v>34114</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H7" s="7">
         <v>74</v>
@@ -4755,13 +4737,13 @@
         <v>41221</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M7" s="7">
         <v>109</v>
@@ -4770,13 +4752,13 @@
         <v>75335</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4791,13 +4773,13 @@
         <v>515709</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H8" s="7">
         <v>924</v>
@@ -4806,13 +4788,13 @@
         <v>578746</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="M8" s="7">
         <v>1501</v>
@@ -4821,13 +4803,13 @@
         <v>1094455</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4895,13 +4877,13 @@
         <v>26294</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H10" s="7">
         <v>116</v>
@@ -4910,13 +4892,13 @@
         <v>76186</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>210</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>144</v>
@@ -4925,13 +4907,13 @@
         <v>102480</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4946,13 +4928,13 @@
         <v>1012954</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>1401</v>
@@ -4961,13 +4943,13 @@
         <v>983893</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>220</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>2337</v>
@@ -4976,13 +4958,13 @@
         <v>1996847</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5050,13 +5032,13 @@
         <v>25420</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>224</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>107</v>
@@ -5065,13 +5047,13 @@
         <v>74858</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>130</v>
@@ -5080,13 +5062,13 @@
         <v>100278</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>109</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>179</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,13 +5083,13 @@
         <v>703352</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>231</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>940</v>
@@ -5116,13 +5098,13 @@
         <v>799513</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>1593</v>
@@ -5131,13 +5113,13 @@
         <v>1502864</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>186</v>
+        <v>114</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>117</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,13 +5187,13 @@
         <v>42772</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H16" s="7">
         <v>139</v>
@@ -5220,13 +5202,13 @@
         <v>96297</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="M16" s="7">
         <v>186</v>
@@ -5235,13 +5217,13 @@
         <v>139069</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,13 +5238,13 @@
         <v>922631</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H17" s="7">
         <v>1423</v>
@@ -5271,13 +5253,13 @@
         <v>1054135</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="M17" s="7">
         <v>2382</v>
@@ -5286,13 +5268,13 @@
         <v>1976766</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,13 +5342,13 @@
         <v>132239</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="H19" s="7">
         <v>452</v>
@@ -5375,13 +5357,13 @@
         <v>296432</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="M19" s="7">
         <v>589</v>
@@ -5390,13 +5372,13 @@
         <v>428671</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,13 +5393,13 @@
         <v>3252989</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H20" s="7">
         <v>4915</v>
@@ -5426,13 +5408,13 @@
         <v>3539149</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M20" s="7">
         <v>8154</v>
@@ -5441,13 +5423,13 @@
         <v>6792137</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B_x_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B_x_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82D248FD-493D-4343-B1D7-28A5BC30455C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{982D5587-1002-4AE2-B1EF-3B6DF99C2DBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1EA939D5-A992-44AD-9A5B-375A987F0BF4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{09A90B8E-2511-4F8C-8AE2-D0DC5C4C90A5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="270">
   <si>
     <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -239,10 +239,10 @@
     <t>2,97%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
   </si>
   <si>
     <t>7,33%</t>
@@ -251,31 +251,31 @@
     <t>3,51%</t>
   </si>
   <si>
-    <t>13,28%</t>
+    <t>13,38%</t>
   </si>
   <si>
     <t>5,12%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
   </si>
   <si>
     <t>97,03%</t>
   </si>
   <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
   </si>
   <si>
     <t>92,67%</t>
   </si>
   <si>
-    <t>86,72%</t>
+    <t>86,62%</t>
   </si>
   <si>
     <t>96,49%</t>
@@ -284,565 +284,571 @@
     <t>94,88%</t>
   </si>
   <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
   </si>
   <si>
     <t>1,58%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
+    <t>2,83%</t>
   </si>
   <si>
     <t>8,15%</t>
   </si>
   <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
     <t>5,93%</t>
   </si>
   <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
   </si>
   <si>
     <t>94,07%</t>
   </si>
   <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
   </si>
   <si>
     <t>3,49%</t>
   </si>
   <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
   </si>
   <si>
     <t>96,51%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
   </si>
   <si>
     <t>91,44%</t>
   </si>
   <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
   </si>
   <si>
     <t>93,74%</t>
   </si>
   <si>
-    <t>95,18%</t>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
   </si>
   <si>
     <t>4,43%</t>
   </si>
   <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
   </si>
   <si>
     <t>6,57%</t>
   </si>
   <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
   </si>
   <si>
     <t>95,57%</t>
   </si>
   <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
   </si>
   <si>
     <t>93,43%</t>
   </si>
   <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
   </si>
   <si>
     <t>7,73%</t>
   </si>
   <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
   </si>
   <si>
     <t>5,94%</t>
   </si>
   <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
   </si>
   <si>
     <t>92,27%</t>
   </si>
   <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
   </si>
   <si>
     <t>94,06%</t>
   </si>
   <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C62605-0014-4689-ABEF-29E109C10CA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00D244D-0067-4E1D-8827-A776E8D010EF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2201,7 +2207,7 @@
         <v>3214</v>
       </c>
       <c r="D20" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -2231,7 +2237,7 @@
         <v>6511</v>
       </c>
       <c r="N20" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
@@ -2252,7 +2258,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -2282,7 +2288,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -2317,7 +2323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4360E73-C4F1-40D4-8AC8-902C7765992C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A147635-B769-4446-AF58-6DBF2B55DC9C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3380,7 +3386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73B2F3C-C2CA-43D1-9239-B863F34CA802}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFAE14B4-58EB-44E9-B927-F400C029C548}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3662,10 +3668,10 @@
         <v>83</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H7" s="7">
         <v>43</v>
@@ -3674,13 +3680,13 @@
         <v>45608</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M7" s="7">
         <v>52</v>
@@ -3689,13 +3695,13 @@
         <v>54447</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,13 +3716,13 @@
         <v>549415</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="H8" s="7">
         <v>508</v>
@@ -3725,13 +3731,13 @@
         <v>513871</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M8" s="7">
         <v>1038</v>
@@ -3740,13 +3746,13 @@
         <v>1063286</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,13 +3820,13 @@
         <v>16302</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H10" s="7">
         <v>58</v>
@@ -3829,13 +3835,13 @@
         <v>64166</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M10" s="7">
         <v>74</v>
@@ -3844,13 +3850,13 @@
         <v>80468</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,13 +3871,13 @@
         <v>1006129</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H11" s="7">
         <v>919</v>
@@ -3880,13 +3886,13 @@
         <v>978747</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M11" s="7">
         <v>1854</v>
@@ -3895,13 +3901,13 @@
         <v>1984876</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,13 +3975,13 @@
         <v>18297</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H13" s="7">
         <v>48</v>
@@ -3984,13 +3990,13 @@
         <v>53133</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -3999,13 +4005,13 @@
         <v>71430</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,13 +4026,13 @@
         <v>741255</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H14" s="7">
         <v>688</v>
@@ -4035,13 +4041,13 @@
         <v>731878</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M14" s="7">
         <v>1367</v>
@@ -4050,13 +4056,13 @@
         <v>1473133</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,13 +4130,13 @@
         <v>19992</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H16" s="7">
         <v>58</v>
@@ -4139,13 +4145,13 @@
         <v>66699</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M16" s="7">
         <v>79</v>
@@ -4154,13 +4160,13 @@
         <v>86691</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,13 +4181,13 @@
         <v>917575</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="H17" s="7">
         <v>901</v>
@@ -4190,13 +4196,13 @@
         <v>977080</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M17" s="7">
         <v>1812</v>
@@ -4205,13 +4211,13 @@
         <v>1894655</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4279,13 +4285,13 @@
         <v>66891</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H19" s="7">
         <v>215</v>
@@ -4294,13 +4300,13 @@
         <v>237917</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M19" s="7">
         <v>281</v>
@@ -4309,13 +4315,13 @@
         <v>304808</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,13 +4336,13 @@
         <v>3327459</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="H20" s="7">
         <v>3123</v>
@@ -4443,7 +4449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AED3A0F4-3B7B-4C46-9267-00AAF8FBEF0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C4015C-F5C4-4762-A395-5D690B8A2145}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4570,10 +4576,10 @@
         <v>170</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -4582,13 +4588,13 @@
         <v>7869</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -4597,13 +4603,13 @@
         <v>11509</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4618,13 +4624,13 @@
         <v>98342</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>181</v>
       </c>
       <c r="H5" s="7">
         <v>227</v>
@@ -4633,13 +4639,13 @@
         <v>122864</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>341</v>
@@ -4648,13 +4654,13 @@
         <v>221206</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>114</v>
+        <v>186</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,13 +4728,13 @@
         <v>34114</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H7" s="7">
         <v>74</v>
@@ -4737,13 +4743,13 @@
         <v>41221</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M7" s="7">
         <v>109</v>
@@ -4752,13 +4758,13 @@
         <v>75335</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4773,13 +4779,13 @@
         <v>515709</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H8" s="7">
         <v>924</v>
@@ -4788,13 +4794,13 @@
         <v>578746</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M8" s="7">
         <v>1501</v>
@@ -4803,13 +4809,13 @@
         <v>1094455</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4883,13 @@
         <v>26294</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H10" s="7">
         <v>116</v>
@@ -4892,13 +4898,13 @@
         <v>76186</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>209</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="M10" s="7">
         <v>144</v>
@@ -4907,13 +4913,13 @@
         <v>102480</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>107</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,13 +4934,13 @@
         <v>1012954</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>1401</v>
@@ -4943,13 +4949,13 @@
         <v>983893</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>2337</v>
@@ -4958,13 +4964,13 @@
         <v>1996847</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,13 +5038,13 @@
         <v>25420</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>220</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H13" s="7">
         <v>107</v>
@@ -5047,13 +5053,13 @@
         <v>74858</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M13" s="7">
         <v>130</v>
@@ -5062,13 +5068,13 @@
         <v>100278</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>106</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,13 +5089,13 @@
         <v>703352</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>229</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="H14" s="7">
         <v>940</v>
@@ -5098,13 +5104,13 @@
         <v>799513</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="M14" s="7">
         <v>1593</v>
@@ -5113,13 +5119,13 @@
         <v>1502864</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>114</v>
+        <v>236</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,13 +5193,13 @@
         <v>42772</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="H16" s="7">
         <v>139</v>
@@ -5202,13 +5208,13 @@
         <v>96297</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>186</v>
@@ -5217,13 +5223,13 @@
         <v>139069</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,13 +5244,13 @@
         <v>922631</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>1423</v>
@@ -5253,13 +5259,13 @@
         <v>1054135</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M17" s="7">
         <v>2382</v>
@@ -5268,13 +5274,13 @@
         <v>1976766</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5342,13 +5348,13 @@
         <v>132239</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>250</v>
+        <v>119</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>452</v>
@@ -5357,28 +5363,28 @@
         <v>296432</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
         <v>589</v>
       </c>
       <c r="N19" s="7">
-        <v>428671</v>
+        <v>428672</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5393,13 +5399,13 @@
         <v>3252989</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>259</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H20" s="7">
         <v>4915</v>
@@ -5408,13 +5414,13 @@
         <v>3539149</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M20" s="7">
         <v>8154</v>
@@ -5423,13 +5429,13 @@
         <v>6792137</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,7 +5477,7 @@
         <v>8743</v>
       </c>
       <c r="N21" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
